--- a/data/zh-cn/achievement.xlsx
+++ b/data/zh-cn/achievement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayuankevinguo/Desktop/life-final/data/zh-cn/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F85C9040-AEB6-CE41-945D-6590DC4AE776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F31BE7-4877-4443-ACE7-A34255685FDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -185,7 +185,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="807">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="819">
   <si>
     <t>$id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1106,14 +1106,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>完成2次乳法</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>（2/2）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>(TLT?[1111])&amp;(TLT?[1130])</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1143,10 +1135,6 @@
   </si>
   <si>
     <t>condition</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(AEVT?[10696])&amp;(AEVT?[11462])</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1601,12 +1589,6 @@
     <t>值得托付的信任</t>
   </si>
   <si>
-    <t>直面恐惧，斩断循环</t>
-  </si>
-  <si>
-    <t>拥抱过去，创造未来</t>
-  </si>
-  <si>
     <t>Ayin</t>
   </si>
   <si>
@@ -2315,99 +2297,6 @@
     <t>得了MVP！</t>
   </si>
   <si>
-    <t>活过第一天</t>
-  </si>
-  <si>
-    <t>镇压黎明考验</t>
-  </si>
-  <si>
-    <t>击败黄昏考验</t>
-  </si>
-  <si>
-    <t>活过第五天</t>
-  </si>
-  <si>
-    <t>活过第十天</t>
-  </si>
-  <si>
-    <t>活过第二十天</t>
-  </si>
-  <si>
-    <t>活过第三十天</t>
-  </si>
-  <si>
-    <t>晋升二级员工</t>
-  </si>
-  <si>
-    <t>晋升三级员工</t>
-  </si>
-  <si>
-    <t>晋升四级员工</t>
-  </si>
-  <si>
-    <t>晋升五级员工</t>
-  </si>
-  <si>
-    <t>就职过控制部</t>
-  </si>
-  <si>
-    <t>就职过情报部</t>
-  </si>
-  <si>
-    <t>就职过培训部</t>
-  </si>
-  <si>
-    <t>就职过安保部</t>
-  </si>
-  <si>
-    <t>活过第35天</t>
-  </si>
-  <si>
-    <t>活过第38天</t>
-  </si>
-  <si>
-    <t>活过第46天</t>
-  </si>
-  <si>
-    <t>活过第47天</t>
-  </si>
-  <si>
-    <t>对HE级异想体工作</t>
-  </si>
-  <si>
-    <t>对Teth级异想体工作</t>
-  </si>
-  <si>
-    <t>对Waw级异想体工作</t>
-  </si>
-  <si>
-    <t>对Aleph级异想体工作</t>
-  </si>
-  <si>
-    <t>穿戴Teth级ego</t>
-  </si>
-  <si>
-    <t>穿戴He级ego</t>
-  </si>
-  <si>
-    <t>穿戴Waw级ego</t>
-  </si>
-  <si>
-    <t>穿戴Aleph级ego</t>
-  </si>
-  <si>
-    <t>镇压Waw级异想体</t>
-  </si>
-  <si>
-    <t>镇压Aleph级异想体</t>
-  </si>
-  <si>
-    <t>镇压午夜考验</t>
-  </si>
-  <si>
-    <t>镇压He级异想体</t>
-  </si>
-  <si>
     <t>花很美</t>
   </si>
   <si>
@@ -2546,9 +2435,6 @@
     <t>EVT?[80036]</t>
   </si>
   <si>
-    <t>工作达成优</t>
-  </si>
-  <si>
     <t>续费时长：200年</t>
   </si>
   <si>
@@ -2918,16 +2804,163 @@
     <t>(AEVT?[70001])&amp;(AEVT?[70002])&amp;(AEVT?[70003])&amp;(AEVT?[70004])&amp;(AEVT?[70005])&amp;(AEVT?[70006])&amp;(AEVT?[70007])&amp;(AEVT?[70008])&amp;(AEVT?[70009])&amp;(AEVT?[70010])&amp;(AEVT?[70012])&amp;(AEVT?[70013])&amp;(AEVT?[70015])&amp;(AEVT?[70016])&amp;(AEVT?[70017])&amp;(AEVT?[70018])&amp;(AEVT?[70019])&amp;(AEVT?[70020])&amp;(AEVT?[70021])</t>
   </si>
   <si>
-    <t>体质&gt;10</t>
-  </si>
-  <si>
-    <t>精神力&gt;12</t>
-  </si>
-  <si>
-    <t>全属性&gt;6</t>
-  </si>
-  <si>
-    <t>智力&gt;10</t>
+    <t>读错书了</t>
+  </si>
+  <si>
+    <t>因人皮启示录而死</t>
+  </si>
+  <si>
+    <t>EVT?[82012]</t>
+  </si>
+  <si>
+    <t>傻人有傻福</t>
+  </si>
+  <si>
+    <t>sb没有</t>
+  </si>
+  <si>
+    <t>(INT&lt;0)&amp;(CHR&gt;10)</t>
+  </si>
+  <si>
+    <t>(INT&lt;0)&amp;(CHR&lt;0)</t>
+  </si>
+  <si>
+    <t>云层上的视线</t>
+  </si>
+  <si>
+    <t>集齐【注视】</t>
+  </si>
+  <si>
+    <t>(ATLT?[1138])&amp;(ATLT?[1139])&amp;(ATLT?[1140])&amp;(ATLT?[1141])</t>
+  </si>
+  <si>
+    <t>智力&lt;0，运气&gt;10</t>
+  </si>
+  <si>
+    <t>智力&lt;0，运气&lt;0</t>
+  </si>
+  <si>
+    <t>拥抱过去 创造未来</t>
+  </si>
+  <si>
+    <t>直面恐惧 斩断循环</t>
+  </si>
+  <si>
+    <t>控制部I:活过第一天</t>
+  </si>
+  <si>
+    <t>控制部II:工作达成优</t>
+  </si>
+  <si>
+    <t>控制部IV:击败黄昏考验</t>
+  </si>
+  <si>
+    <t>情报部I:活过第五天</t>
+  </si>
+  <si>
+    <t>情报部II:活过第十天</t>
+  </si>
+  <si>
+    <t>情报部IV:活过第三十天</t>
+  </si>
+  <si>
+    <t>培训部I:晋升二级员工</t>
+  </si>
+  <si>
+    <t>培训部II:晋升三级员工</t>
+  </si>
+  <si>
+    <t>大灾星</t>
+  </si>
+  <si>
+    <t>走哪哪完蛋</t>
+  </si>
+  <si>
+    <t>培训部IV:晋升五级员工</t>
+  </si>
+  <si>
+    <t>安保部I:就职过控制部</t>
+  </si>
+  <si>
+    <t>安保部II:就职过情报部</t>
+  </si>
+  <si>
+    <t>安保部IV:就职过安保部</t>
+  </si>
+  <si>
+    <t>中央本部I:对Teth级异想体工作</t>
+  </si>
+  <si>
+    <t>中央本部II:对HE级异想体工作</t>
+  </si>
+  <si>
+    <t>中央本部III:对Waw级异想体工作</t>
+  </si>
+  <si>
+    <t>惩戒部I:镇压He级异想体</t>
+  </si>
+  <si>
+    <t>惩戒部II:镇压Waw级异想体</t>
+  </si>
+  <si>
+    <t>惩戒部III:镇压Aleph级异想体</t>
+  </si>
+  <si>
+    <t>惩戒部IV:镇压午夜考验</t>
+  </si>
+  <si>
+    <t>福利部I:活过第35天</t>
+  </si>
+  <si>
+    <t>福利部II:活过第38天</t>
+  </si>
+  <si>
+    <t>福利部III:活过第46天</t>
+  </si>
+  <si>
+    <t>福利部IV:活过第47天</t>
+  </si>
+  <si>
+    <t>研发部I:穿戴Teth级ego</t>
+  </si>
+  <si>
+    <t>研发部II:穿戴He级ego</t>
+  </si>
+  <si>
+    <t>研发部III:穿戴Waw级ego</t>
+  </si>
+  <si>
+    <t>研发部IV:穿戴Aleph级ego</t>
+  </si>
+  <si>
+    <t>记录部I:体质&gt;10</t>
+  </si>
+  <si>
+    <t>记录部II:全属性&gt;6</t>
+  </si>
+  <si>
+    <t>记录部III:智力&gt;10</t>
+  </si>
+  <si>
+    <t>记录部IV:精神力&gt;12</t>
+  </si>
+  <si>
+    <t>控制部III:镇压黎明考验</t>
+  </si>
+  <si>
+    <t>情报部III:活过第二十天</t>
+  </si>
+  <si>
+    <t>培训部III:晋升四级员工</t>
+  </si>
+  <si>
+    <t>安保部III:就职过培训部</t>
+  </si>
+  <si>
+    <t>中央本部IV:对Aleph级异想体工作</t>
+  </si>
+  <si>
+    <t>(AEVT?[50526])&amp;(AEVT?[50564])&amp;(AEVT?[90277])&amp;(AEVT?[50736])&amp;(AEVT?[50812])&amp;(AEVT?[50547])&amp;(AEVT?[11299])&amp;(AEVT?[21315])</t>
   </si>
 </sst>
 </file>
@@ -3350,8 +3383,8 @@
   <dimension ref="A1:M282"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A144" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E150" sqref="E150"/>
+      <pane ySplit="2" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E109" sqref="E109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25.5" defaultRowHeight="21"/>
@@ -3382,13 +3415,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -3408,13 +3441,13 @@
         <v>5</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
@@ -3426,7 +3459,7 @@
         <v>101</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>8</v>
@@ -3441,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="39.5" customHeight="1">
@@ -3449,7 +3482,7 @@
         <v>102</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>9</v>
@@ -3464,7 +3497,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="39.5" customHeight="1">
@@ -3472,7 +3505,7 @@
         <v>103</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>10</v>
@@ -3487,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="39.5" customHeight="1">
@@ -3495,7 +3528,7 @@
         <v>104</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>11</v>
@@ -3510,7 +3543,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="39.5" customHeight="1">
@@ -3518,22 +3551,22 @@
         <v>105</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="D7" s="5">
         <v>3</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="F7" s="5">
         <v>0</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="39.5" customHeight="1">
@@ -3550,13 +3583,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F8" s="5">
         <v>0</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="39.5" customHeight="1">
@@ -3573,13 +3606,13 @@
         <v>1</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F9" s="5">
         <v>0</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="39.5" customHeight="1">
@@ -3587,7 +3620,7 @@
         <v>108</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>20</v>
@@ -3596,13 +3629,13 @@
         <v>2</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F10" s="5">
         <v>0</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="39.5" customHeight="1">
@@ -3610,22 +3643,22 @@
         <v>109</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="D11" s="5">
         <v>2</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="F11" s="5">
         <v>1</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="39.5" customHeight="1">
@@ -3648,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="39.5" customHeight="1">
@@ -3656,10 +3689,10 @@
         <v>111</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="D13" s="5">
         <v>0</v>
@@ -3671,7 +3704,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="39.5" customHeight="1">
@@ -3679,22 +3712,22 @@
         <v>112</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D14" s="5">
         <v>0</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F14" s="5">
         <v>0</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="39.5" customHeight="1">
@@ -3702,7 +3735,7 @@
         <v>113</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>27</v>
@@ -3711,13 +3744,13 @@
         <v>0</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F15" s="5">
         <v>0</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="39.5" customHeight="1">
@@ -3725,7 +3758,7 @@
         <v>114</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>28</v>
@@ -3734,13 +3767,13 @@
         <v>0</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F16" s="5">
         <v>0</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="39.5" customHeight="1">
@@ -3748,7 +3781,7 @@
         <v>115</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>29</v>
@@ -3757,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F17" s="5">
         <v>0</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="39.5" customHeight="1">
@@ -3774,19 +3807,19 @@
         <v>30</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D18" s="5">
         <v>0</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="F18" s="5">
         <v>0</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="39.5" customHeight="1">
@@ -3794,22 +3827,22 @@
         <v>117</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="D19" s="5">
         <v>1</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="F19" s="5">
         <v>0</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="39.5" customHeight="1">
@@ -3817,22 +3850,22 @@
         <v>118</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="D20" s="5">
         <v>1</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="F20" s="5">
         <v>0</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="39.5" customHeight="1">
@@ -3840,22 +3873,22 @@
         <v>119</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="D21" s="5">
         <v>1</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="F21" s="5">
         <v>0</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="39.5" customHeight="1">
@@ -3863,22 +3896,22 @@
         <v>120</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="D22" s="5">
         <v>1</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="F22" s="5">
         <v>0</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="39.5" customHeight="1">
@@ -3886,22 +3919,22 @@
         <v>121</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="D23" s="5">
         <v>1</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="F23" s="5">
         <v>0</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="39.5" customHeight="1">
@@ -3909,22 +3942,22 @@
         <v>122</v>
       </c>
       <c r="B24" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>333</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>336</v>
       </c>
       <c r="D24" s="5">
         <v>2</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F24" s="5">
         <v>1</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="39.5" customHeight="1">
@@ -3932,16 +3965,22 @@
         <v>123</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="D25" s="5">
         <v>2</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>503</v>
+        <v>498</v>
+      </c>
+      <c r="F25" s="5">
+        <v>0</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="39.5" customHeight="1">
@@ -3949,22 +3988,22 @@
         <v>124</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D26" s="5">
         <v>2</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="F26" s="5">
         <v>0</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="39.5" customHeight="1">
@@ -3972,22 +4011,22 @@
         <v>125</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D27" s="5">
         <v>2</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="F27" s="5">
         <v>0</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="39.5" customHeight="1">
@@ -3995,22 +4034,22 @@
         <v>126</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D28" s="5">
         <v>2</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="F28" s="5">
         <v>1</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="39.5" customHeight="1">
@@ -4033,7 +4072,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="39.5" customHeight="1">
@@ -4044,7 +4083,7 @@
         <v>34</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D30" s="5">
         <v>1</v>
@@ -4056,7 +4095,7 @@
         <v>0</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="39.5" customHeight="1">
@@ -4067,7 +4106,7 @@
         <v>36</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="D31" s="5">
         <v>0</v>
@@ -4079,7 +4118,7 @@
         <v>0</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="39.5" customHeight="1">
@@ -4102,7 +4141,7 @@
         <v>0</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="39.5" customHeight="1">
@@ -4125,7 +4164,7 @@
         <v>0</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="39.5" customHeight="1">
@@ -4133,7 +4172,7 @@
         <v>132</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>45</v>
@@ -4148,7 +4187,7 @@
         <v>1</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="39.5" customHeight="1">
@@ -4171,7 +4210,7 @@
         <v>0</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="39.5" customHeight="1">
@@ -4179,10 +4218,10 @@
         <v>134</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D36" s="5">
         <v>0</v>
@@ -4194,7 +4233,7 @@
         <v>0</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="39.5" customHeight="1">
@@ -4202,10 +4241,10 @@
         <v>135</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D37" s="5">
         <v>0</v>
@@ -4217,7 +4256,7 @@
         <v>0</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="39.5" customHeight="1">
@@ -4240,7 +4279,7 @@
         <v>0</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="39.5" customHeight="1">
@@ -4263,7 +4302,7 @@
         <v>0</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="39.5" customHeight="1">
@@ -4286,7 +4325,7 @@
         <v>0</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="39.5" customHeight="1">
@@ -4294,7 +4333,7 @@
         <v>139</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>144</v>
@@ -4309,7 +4348,7 @@
         <v>0</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="39.5" customHeight="1">
@@ -4332,7 +4371,7 @@
         <v>0</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="39.5" customHeight="1">
@@ -4355,7 +4394,7 @@
         <v>0</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="39.5" customHeight="1">
@@ -4363,7 +4402,7 @@
         <v>142</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C44" s="8"/>
       <c r="D44" s="5">
@@ -4376,7 +4415,7 @@
         <v>0</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="39.5" customHeight="1">
@@ -4399,7 +4438,7 @@
         <v>0</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="39.5" customHeight="1">
@@ -4422,7 +4461,7 @@
         <v>1</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="39.5" customHeight="1">
@@ -4445,7 +4484,7 @@
         <v>0</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="39.5" customHeight="1">
@@ -4456,7 +4495,7 @@
         <v>77</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D48" s="5">
         <v>0</v>
@@ -4468,7 +4507,7 @@
         <v>0</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="39.5" customHeight="1">
@@ -4491,7 +4530,7 @@
         <v>0</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="39.5" customHeight="1">
@@ -4502,7 +4541,7 @@
         <v>82</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D50" s="5">
         <v>1</v>
@@ -4514,7 +4553,7 @@
         <v>0</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="39.5" customHeight="1">
@@ -4525,7 +4564,7 @@
         <v>84</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D51" s="5">
         <v>0</v>
@@ -4537,7 +4576,7 @@
         <v>0</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="39.5" customHeight="1">
@@ -4548,7 +4587,7 @@
         <v>85</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="D52" s="5">
         <v>0</v>
@@ -4560,7 +4599,7 @@
         <v>0</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="39.5" customHeight="1">
@@ -4568,22 +4607,22 @@
         <v>151</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="D53" s="5">
         <v>1</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="F53" s="5">
         <v>0</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="39.5" customHeight="1">
@@ -4606,7 +4645,7 @@
         <v>0</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="39.5" customHeight="1">
@@ -4629,7 +4668,7 @@
         <v>0</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="39.5" customHeight="1">
@@ -4637,10 +4676,10 @@
         <v>154</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D56" s="5">
         <v>2</v>
@@ -4652,7 +4691,7 @@
         <v>0</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="39.5" customHeight="1">
@@ -4663,7 +4702,7 @@
         <v>95</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D57" s="5">
         <v>1</v>
@@ -4675,7 +4714,7 @@
         <v>0</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="39.5" customHeight="1">
@@ -4683,10 +4722,10 @@
         <v>156</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="D58" s="5">
         <v>0</v>
@@ -4698,7 +4737,7 @@
         <v>0</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="39.5" customHeight="1">
@@ -4721,7 +4760,7 @@
         <v>0</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="39.5" customHeight="1">
@@ -4744,7 +4783,7 @@
         <v>0</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="39.5" customHeight="1">
@@ -4767,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="39.5" customHeight="1">
@@ -4775,7 +4814,7 @@
         <v>160</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>107</v>
@@ -4790,7 +4829,7 @@
         <v>0</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="39.5" customHeight="1">
@@ -4813,7 +4852,7 @@
         <v>0</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="39.5" customHeight="1">
@@ -4821,7 +4860,7 @@
         <v>162</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="C64" s="5" t="s">
         <v>111</v>
@@ -4836,7 +4875,7 @@
         <v>0</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="39.5" customHeight="1">
@@ -4844,7 +4883,7 @@
         <v>163</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>114</v>
@@ -4859,7 +4898,7 @@
         <v>0</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="39.5" customHeight="1">
@@ -4882,7 +4921,7 @@
         <v>0</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="39.5" customHeight="1">
@@ -4905,7 +4944,7 @@
         <v>0</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="39.5" customHeight="1">
@@ -4928,7 +4967,7 @@
         <v>0</v>
       </c>
       <c r="G68" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="39.5" customHeight="1">
@@ -4939,7 +4978,7 @@
         <v>125</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D69" s="5">
         <v>2</v>
@@ -4951,7 +4990,7 @@
         <v>0</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="39.5" customHeight="1">
@@ -4974,7 +5013,7 @@
         <v>0</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="39.5" customHeight="1">
@@ -4997,7 +5036,7 @@
         <v>0</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="39.5" customHeight="1">
@@ -5020,7 +5059,7 @@
         <v>0</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="39.5" customHeight="1">
@@ -5028,22 +5067,22 @@
         <v>171</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="D73" s="5">
         <v>2</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="F73" s="5">
         <v>0</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="39.5" customHeight="1">
@@ -5066,7 +5105,7 @@
         <v>0</v>
       </c>
       <c r="G74" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="39.5" customHeight="1">
@@ -5074,10 +5113,10 @@
         <v>173</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D75" s="5">
         <v>1</v>
@@ -5089,7 +5128,7 @@
         <v>1</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="39.5" customHeight="1">
@@ -5112,7 +5151,7 @@
         <v>0</v>
       </c>
       <c r="G76" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="39.5" customHeight="1">
@@ -5120,7 +5159,7 @@
         <v>175</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C77" s="5" t="s">
         <v>142</v>
@@ -5135,7 +5174,7 @@
         <v>0</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="39.5" customHeight="1">
@@ -5158,7 +5197,7 @@
         <v>0</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="39.5" customHeight="1">
@@ -5181,7 +5220,7 @@
         <v>0</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="39.5" customHeight="1">
@@ -5204,7 +5243,7 @@
         <v>0</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="39.5" customHeight="1">
@@ -5227,7 +5266,7 @@
         <v>1</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="39.5" customHeight="1">
@@ -5250,7 +5289,7 @@
         <v>1</v>
       </c>
       <c r="G82" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="39.5" customHeight="1">
@@ -5273,7 +5312,7 @@
         <v>0</v>
       </c>
       <c r="G83" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="39.5" customHeight="1">
@@ -5281,10 +5320,10 @@
         <v>182</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="D84" s="5">
         <v>0</v>
@@ -5296,7 +5335,7 @@
         <v>1</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="39.5" customHeight="1">
@@ -5316,7 +5355,7 @@
         <v>0</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="39.5" customHeight="1">
@@ -5339,7 +5378,7 @@
         <v>0</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="39.5" customHeight="1">
@@ -5362,7 +5401,7 @@
         <v>1</v>
       </c>
       <c r="G87" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="39.5" customHeight="1">
@@ -5370,7 +5409,7 @@
         <v>186</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="C88" s="5" t="s">
         <v>173</v>
@@ -5385,7 +5424,7 @@
         <v>0</v>
       </c>
       <c r="G88" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="39.5" customHeight="1">
@@ -5408,7 +5447,7 @@
         <v>0</v>
       </c>
       <c r="G89" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="39.5" customHeight="1">
@@ -5431,7 +5470,7 @@
         <v>0</v>
       </c>
       <c r="G90" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="39.5" customHeight="1">
@@ -5454,7 +5493,7 @@
         <v>0</v>
       </c>
       <c r="G91" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="39.5" customHeight="1">
@@ -5477,7 +5516,7 @@
         <v>0</v>
       </c>
       <c r="G92" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="39.5" customHeight="1">
@@ -5500,7 +5539,7 @@
         <v>0</v>
       </c>
       <c r="G93" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="39.5" customHeight="1">
@@ -5523,7 +5562,7 @@
         <v>0</v>
       </c>
       <c r="G94" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="39.5" customHeight="1">
@@ -5546,7 +5585,7 @@
         <v>0</v>
       </c>
       <c r="G95" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="39.5" customHeight="1">
@@ -5554,10 +5593,10 @@
         <v>194</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="D96" s="5">
         <v>0</v>
@@ -5569,7 +5608,7 @@
         <v>0</v>
       </c>
       <c r="G96" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="39.5" customHeight="1">
@@ -5577,10 +5616,10 @@
         <v>195</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="D97" s="5">
         <v>1</v>
@@ -5592,7 +5631,7 @@
         <v>0</v>
       </c>
       <c r="G97" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="39.5" customHeight="1">
@@ -5615,7 +5654,7 @@
         <v>0</v>
       </c>
       <c r="G98" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="39.5" customHeight="1">
@@ -5638,7 +5677,7 @@
         <v>1</v>
       </c>
       <c r="G99" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="39.5" customHeight="1">
@@ -5646,10 +5685,10 @@
         <v>198</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="D100" s="5">
         <v>0</v>
@@ -5661,7 +5700,7 @@
         <v>0</v>
       </c>
       <c r="G100" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="39.5" customHeight="1">
@@ -5672,7 +5711,7 @@
         <v>205</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="D101" s="5">
         <v>0</v>
@@ -5684,7 +5723,7 @@
         <v>0</v>
       </c>
       <c r="G101" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="39.5" customHeight="1">
@@ -5707,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="G102" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="39.5" customHeight="1">
@@ -5724,13 +5763,13 @@
         <v>3</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F103" s="5">
         <v>0</v>
       </c>
       <c r="G103" s="5" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="39.5" customHeight="1">
@@ -5753,7 +5792,7 @@
         <v>0</v>
       </c>
       <c r="G104" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="39.5" customHeight="1">
@@ -5761,7 +5800,7 @@
         <v>203</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C105" s="5" t="s">
         <v>216</v>
@@ -5776,7 +5815,7 @@
         <v>0</v>
       </c>
       <c r="G105" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="39.5" customHeight="1">
@@ -5799,7 +5838,7 @@
         <v>0</v>
       </c>
       <c r="G106" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="39.5" customHeight="1">
@@ -5822,7 +5861,7 @@
         <v>0</v>
       </c>
       <c r="G107" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="39.5" customHeight="1">
@@ -5845,7 +5884,7 @@
         <v>0</v>
       </c>
       <c r="G108" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="39.5" customHeight="1">
@@ -5862,13 +5901,13 @@
         <v>1</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F109" s="5">
         <v>0</v>
       </c>
       <c r="G109" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="39.5" customHeight="1">
@@ -5891,7 +5930,7 @@
         <v>1</v>
       </c>
       <c r="G110" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="39.5" customHeight="1">
@@ -5899,22 +5938,22 @@
         <v>209</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>232</v>
+        <v>788</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>231</v>
+        <v>789</v>
       </c>
       <c r="D111" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>241</v>
+        <v>818</v>
       </c>
       <c r="F111" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G111" s="5" t="s">
-        <v>291</v>
+        <v>702</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="39.5" customHeight="1">
@@ -5922,22 +5961,22 @@
         <v>210</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D112" s="5">
         <v>1</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F112" s="5">
         <v>0</v>
       </c>
       <c r="G112" s="5" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="39.5" customHeight="1">
@@ -5945,22 +5984,22 @@
         <v>211</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D113" s="5">
         <v>2</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F113" s="5">
         <v>0</v>
       </c>
       <c r="G113" s="5" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="39.5" customHeight="1">
@@ -5968,22 +6007,22 @@
         <v>212</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D114" s="5">
         <v>1</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F114" s="5">
         <v>0</v>
       </c>
       <c r="G114" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="39.5" customHeight="1">
@@ -5991,22 +6030,22 @@
         <v>213</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="D115" s="5">
         <v>0</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F115" s="5">
         <v>0</v>
       </c>
       <c r="G115" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="39.5" customHeight="1">
@@ -6014,22 +6053,22 @@
         <v>214</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D116" s="5">
         <v>0</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F116" s="5">
         <v>0</v>
       </c>
       <c r="G116" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="39.5" customHeight="1">
@@ -6037,22 +6076,22 @@
         <v>215</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D117" s="5">
         <v>0</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F117" s="5">
         <v>0</v>
       </c>
       <c r="G117" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="39.5" customHeight="1">
@@ -6060,22 +6099,22 @@
         <v>216</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D118" s="5">
         <v>0</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F118" s="5">
         <v>0</v>
       </c>
       <c r="G118" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="39.5" customHeight="1">
@@ -6083,22 +6122,22 @@
         <v>217</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D119" s="5">
         <v>0</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F119" s="5">
         <v>0</v>
       </c>
       <c r="G119" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="39.5" customHeight="1">
@@ -6106,22 +6145,22 @@
         <v>218</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D120" s="5">
         <v>0</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F120" s="5">
         <v>0</v>
       </c>
       <c r="G120" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="39.5" customHeight="1">
@@ -6129,22 +6168,22 @@
         <v>219</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D121" s="5">
         <v>0</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F121" s="5">
         <v>0</v>
       </c>
       <c r="G121" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="39.5" customHeight="1">
@@ -6152,22 +6191,22 @@
         <v>220</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D122" s="5">
         <v>1</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F122" s="5">
         <v>0</v>
       </c>
       <c r="G122" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="39.5" customHeight="1">
@@ -6175,22 +6214,22 @@
         <v>221</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D123" s="5">
         <v>1</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F123" s="5">
         <v>0</v>
       </c>
       <c r="G123" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="39.5" customHeight="1">
@@ -6198,22 +6237,22 @@
         <v>222</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D124" s="5">
         <v>1</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F124" s="5">
         <v>0</v>
       </c>
       <c r="G124" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="39.5" customHeight="1">
@@ -6221,22 +6260,22 @@
         <v>223</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D125" s="5">
         <v>1</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F125" s="5">
         <v>0</v>
       </c>
       <c r="G125" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="39.5" customHeight="1">
@@ -6244,22 +6283,22 @@
         <v>224</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D126" s="5">
         <v>1</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F126" s="5">
         <v>0</v>
       </c>
       <c r="G126" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="39.5" customHeight="1">
@@ -6267,22 +6306,22 @@
         <v>225</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D127" s="5">
         <v>0</v>
       </c>
       <c r="E127" s="5" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F127" s="5">
         <v>0</v>
       </c>
       <c r="G127" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="39.5" customHeight="1">
@@ -6290,22 +6329,22 @@
         <v>226</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D128" s="5">
         <v>0</v>
       </c>
       <c r="E128" s="5" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F128" s="5">
         <v>0</v>
       </c>
       <c r="G128" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="129" spans="1:7" ht="39.5" customHeight="1">
@@ -6313,22 +6352,22 @@
         <v>227</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D129" s="5">
         <v>0</v>
       </c>
       <c r="E129" s="5" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="F129" s="5">
         <v>0</v>
       </c>
       <c r="G129" s="5" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="130" spans="1:7" ht="39.5" customHeight="1">
@@ -6336,22 +6375,22 @@
         <v>228</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D130" s="5">
         <v>1</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F130" s="5">
         <v>0</v>
       </c>
       <c r="G130" s="5" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="39.5" customHeight="1">
@@ -6359,22 +6398,22 @@
         <v>229</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D131" s="5">
         <v>2</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="F131" s="5">
         <v>1</v>
       </c>
       <c r="G131" s="5" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="39.5" customHeight="1">
@@ -6382,22 +6421,22 @@
         <v>230</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D132" s="5">
         <v>2</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F132" s="5">
         <v>0</v>
       </c>
       <c r="G132" s="5" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="133" spans="1:7" ht="39.5" customHeight="1">
@@ -6405,22 +6444,22 @@
         <v>231</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D133" s="5">
         <v>0</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="F133" s="5">
         <v>0</v>
       </c>
       <c r="G133" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="134" spans="1:7" ht="39.5" customHeight="1">
@@ -6428,22 +6467,22 @@
         <v>232</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D134" s="5">
         <v>1</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F134" s="5">
         <v>0</v>
       </c>
       <c r="G134" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="135" spans="1:7" ht="39.5" customHeight="1">
@@ -6451,22 +6490,22 @@
         <v>233</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D135" s="5">
         <v>2</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F135" s="5">
         <v>0</v>
       </c>
       <c r="G135" s="5" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -6474,22 +6513,22 @@
         <v>234</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D136" s="5">
         <v>0</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F136" s="5">
         <v>1</v>
       </c>
       <c r="G136" s="5" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -6497,22 +6536,22 @@
         <v>235</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D137" s="5">
         <v>2</v>
       </c>
       <c r="E137" s="5" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="F137" s="5">
         <v>0</v>
       </c>
       <c r="G137" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -6520,22 +6559,22 @@
         <v>236</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="D138" s="5">
         <v>1</v>
       </c>
       <c r="E138" s="5" t="s">
-        <v>723</v>
+        <v>686</v>
       </c>
       <c r="F138" s="5">
         <v>1</v>
       </c>
       <c r="G138" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -6543,22 +6582,22 @@
         <v>237</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="D139" s="5">
         <v>1</v>
       </c>
       <c r="E139" s="5" t="s">
-        <v>724</v>
+        <v>687</v>
       </c>
       <c r="F139" s="5">
         <v>1</v>
       </c>
       <c r="G139" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -6566,22 +6605,22 @@
         <v>238</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="D140" s="5">
         <v>1</v>
       </c>
       <c r="E140" s="5" t="s">
-        <v>725</v>
+        <v>688</v>
       </c>
       <c r="F140" s="5">
         <v>1</v>
       </c>
       <c r="G140" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -6589,22 +6628,22 @@
         <v>239</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="D141" s="5">
         <v>1</v>
       </c>
       <c r="E141" s="5" t="s">
-        <v>726</v>
+        <v>689</v>
       </c>
       <c r="F141" s="5">
         <v>1</v>
       </c>
       <c r="G141" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -6612,22 +6651,22 @@
         <v>240</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="D142" s="5">
         <v>2</v>
       </c>
       <c r="E142" s="5" t="s">
-        <v>727</v>
+        <v>690</v>
       </c>
       <c r="F142" s="5">
         <v>1</v>
       </c>
       <c r="G142" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -6635,22 +6674,22 @@
         <v>241</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="D143" s="5">
         <v>2</v>
       </c>
       <c r="E143" s="5" t="s">
-        <v>728</v>
+        <v>691</v>
       </c>
       <c r="F143" s="5">
         <v>1</v>
       </c>
       <c r="G143" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -6658,22 +6697,22 @@
         <v>242</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="D144" s="5">
         <v>2</v>
       </c>
       <c r="E144" s="5" t="s">
-        <v>729</v>
+        <v>692</v>
       </c>
       <c r="F144" s="5">
         <v>1</v>
       </c>
       <c r="G144" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -6681,22 +6720,22 @@
         <v>243</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>364</v>
+        <v>779</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="D145" s="5">
         <v>3</v>
       </c>
       <c r="E145" s="5" t="s">
-        <v>730</v>
+        <v>693</v>
       </c>
       <c r="F145" s="5">
         <v>1</v>
       </c>
       <c r="G145" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -6704,22 +6743,22 @@
         <v>244</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>365</v>
+        <v>778</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="D146" s="5">
         <v>3</v>
       </c>
       <c r="E146" s="5" t="s">
-        <v>731</v>
+        <v>694</v>
       </c>
       <c r="F146" s="5">
         <v>1</v>
       </c>
       <c r="G146" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -6727,22 +6766,22 @@
         <v>245</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="D147" s="5">
         <v>0</v>
       </c>
       <c r="E147" s="5" t="s">
-        <v>732</v>
+        <v>695</v>
       </c>
       <c r="F147" s="5">
         <v>1</v>
       </c>
       <c r="G147" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -6750,22 +6789,22 @@
         <v>246</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="D148" s="5">
         <v>1</v>
       </c>
       <c r="E148" s="5" t="s">
-        <v>733</v>
+        <v>696</v>
       </c>
       <c r="F148" s="5">
         <v>1</v>
       </c>
       <c r="G148" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -6773,22 +6812,22 @@
         <v>247</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="D149" s="5">
         <v>2</v>
       </c>
       <c r="E149" s="5" t="s">
-        <v>734</v>
+        <v>697</v>
       </c>
       <c r="F149" s="5">
         <v>1</v>
       </c>
       <c r="G149" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -6796,22 +6835,22 @@
         <v>248</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="D150" s="5">
         <v>3</v>
       </c>
       <c r="E150" s="5" t="s">
-        <v>734</v>
+        <v>697</v>
       </c>
       <c r="F150" s="5">
         <v>1</v>
       </c>
       <c r="G150" s="5" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -6819,22 +6858,22 @@
         <v>249</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="D151" s="5">
         <v>3</v>
       </c>
       <c r="E151" s="5" t="s">
-        <v>715</v>
+        <v>678</v>
       </c>
       <c r="F151" s="5">
         <v>1</v>
       </c>
       <c r="G151" s="5" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -6842,22 +6881,22 @@
         <v>250</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="D152" s="5">
         <v>3</v>
       </c>
       <c r="E152" s="5" t="s">
-        <v>716</v>
+        <v>679</v>
       </c>
       <c r="F152" s="5">
         <v>1</v>
       </c>
       <c r="G152" s="5" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -6865,22 +6904,22 @@
         <v>251</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="D153" s="5">
         <v>2</v>
       </c>
       <c r="E153" s="5" t="s">
-        <v>743</v>
+        <v>706</v>
       </c>
       <c r="F153" s="5">
         <v>0</v>
       </c>
       <c r="G153" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -6888,22 +6927,22 @@
         <v>252</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="D154" s="5">
         <v>2</v>
       </c>
       <c r="E154" s="5" t="s">
-        <v>747</v>
+        <v>710</v>
       </c>
       <c r="F154" s="5">
         <v>0</v>
       </c>
       <c r="G154" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -6911,22 +6950,22 @@
         <v>253</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="D155" s="5">
         <v>1</v>
       </c>
       <c r="E155" s="5" t="s">
-        <v>748</v>
+        <v>711</v>
       </c>
       <c r="F155" s="5">
         <v>0</v>
       </c>
       <c r="G155" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -6934,22 +6973,22 @@
         <v>254</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D156" s="5">
         <v>2</v>
       </c>
       <c r="E156" s="5" t="s">
-        <v>750</v>
+        <v>713</v>
       </c>
       <c r="F156" s="5">
         <v>1</v>
       </c>
       <c r="G156" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -6957,22 +6996,22 @@
         <v>255</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="D157" s="5">
         <v>3</v>
       </c>
       <c r="E157" s="5" t="s">
-        <v>749</v>
+        <v>712</v>
       </c>
       <c r="F157" s="5">
         <v>1</v>
       </c>
       <c r="G157" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -6980,22 +7019,22 @@
         <v>256</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="D158" s="5">
         <v>1</v>
       </c>
       <c r="E158" s="5" t="s">
-        <v>751</v>
+        <v>714</v>
       </c>
       <c r="F158" s="5">
         <v>1</v>
       </c>
       <c r="G158" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -7003,22 +7042,22 @@
         <v>257</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>752</v>
+        <v>715</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="D159" s="5">
         <v>0</v>
       </c>
       <c r="E159" s="5" t="s">
-        <v>753</v>
+        <v>716</v>
       </c>
       <c r="F159" s="5">
         <v>1</v>
       </c>
       <c r="G159" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -7026,22 +7065,22 @@
         <v>258</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="D160" s="5">
         <v>0</v>
       </c>
       <c r="E160" s="5" t="s">
-        <v>754</v>
+        <v>717</v>
       </c>
       <c r="F160" s="5">
         <v>0</v>
       </c>
       <c r="G160" s="5" t="s">
-        <v>738</v>
+        <v>701</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -7049,22 +7088,22 @@
         <v>259</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>755</v>
+        <v>718</v>
       </c>
       <c r="D161" s="5">
         <v>2</v>
       </c>
       <c r="E161" s="5" t="s">
-        <v>756</v>
+        <v>719</v>
       </c>
       <c r="F161" s="5">
         <v>1</v>
       </c>
       <c r="G161" s="5" t="s">
-        <v>739</v>
+        <v>702</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -7072,22 +7111,22 @@
         <v>260</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="D162" s="5">
         <v>2</v>
       </c>
       <c r="E162" s="5" t="s">
-        <v>757</v>
+        <v>720</v>
       </c>
       <c r="F162" s="5">
         <v>0</v>
       </c>
       <c r="G162" s="5" t="s">
-        <v>739</v>
+        <v>702</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -7095,22 +7134,22 @@
         <v>261</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="D163" s="5">
         <v>2</v>
       </c>
       <c r="E163" s="5" t="s">
-        <v>801</v>
+        <v>764</v>
       </c>
       <c r="F163" s="5">
         <v>0</v>
       </c>
       <c r="G163" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -7118,22 +7157,22 @@
         <v>262</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="D164" s="5">
         <v>2</v>
       </c>
       <c r="E164" s="5" t="s">
-        <v>796</v>
+        <v>759</v>
       </c>
       <c r="F164" s="5">
         <v>0</v>
       </c>
       <c r="G164" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -7141,22 +7180,22 @@
         <v>263</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="D165" s="5">
         <v>1</v>
       </c>
       <c r="E165" s="5" t="s">
-        <v>758</v>
+        <v>721</v>
       </c>
       <c r="F165" s="5">
         <v>0</v>
       </c>
       <c r="G165" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -7164,22 +7203,22 @@
         <v>264</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="D166" s="5">
         <v>0</v>
       </c>
       <c r="E166" s="5" t="s">
-        <v>759</v>
+        <v>722</v>
       </c>
       <c r="F166" s="5">
         <v>0</v>
       </c>
       <c r="G166" s="5" t="s">
-        <v>739</v>
+        <v>702</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -7187,22 +7226,22 @@
         <v>265</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="D167" s="5">
         <v>1</v>
       </c>
       <c r="E167" s="5" t="s">
-        <v>797</v>
+        <v>760</v>
       </c>
       <c r="F167" s="5">
         <v>0</v>
       </c>
       <c r="G167" s="5" t="s">
-        <v>739</v>
+        <v>702</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -7210,22 +7249,22 @@
         <v>266</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="D168" s="5">
         <v>2</v>
       </c>
       <c r="E168" s="5" t="s">
-        <v>760</v>
+        <v>723</v>
       </c>
       <c r="F168" s="5">
         <v>1</v>
       </c>
       <c r="G168" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -7233,22 +7272,22 @@
         <v>267</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>735</v>
+        <v>698</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>736</v>
+        <v>699</v>
       </c>
       <c r="D169" s="5">
         <v>1</v>
       </c>
       <c r="E169" s="5" t="s">
-        <v>737</v>
+        <v>700</v>
       </c>
       <c r="F169" s="5">
         <v>0</v>
       </c>
       <c r="G169" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -7256,22 +7295,22 @@
         <v>268</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="D170" s="5">
         <v>2</v>
       </c>
       <c r="E170" s="5" t="s">
-        <v>761</v>
+        <v>724</v>
       </c>
       <c r="F170" s="5">
         <v>1</v>
       </c>
       <c r="G170" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -7279,22 +7318,22 @@
         <v>269</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="D171" s="5">
         <v>1</v>
       </c>
       <c r="E171" s="5" t="s">
-        <v>762</v>
+        <v>725</v>
       </c>
       <c r="F171" s="5">
         <v>1</v>
       </c>
       <c r="G171" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -7302,22 +7341,22 @@
         <v>270</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="D172" s="5">
         <v>3</v>
       </c>
       <c r="E172" s="5" t="s">
-        <v>798</v>
+        <v>761</v>
       </c>
       <c r="F172" s="5">
         <v>0</v>
       </c>
       <c r="G172" s="5" t="s">
-        <v>739</v>
+        <v>702</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -7325,22 +7364,22 @@
         <v>271</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="D173" s="5">
         <v>2</v>
       </c>
       <c r="E173" s="5" t="s">
-        <v>799</v>
+        <v>762</v>
       </c>
       <c r="F173" s="5">
         <v>1</v>
       </c>
       <c r="G173" s="5" t="s">
-        <v>739</v>
+        <v>702</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -7348,22 +7387,22 @@
         <v>272</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="D174" s="5">
         <v>3</v>
       </c>
       <c r="E174" s="5" t="s">
-        <v>800</v>
+        <v>763</v>
       </c>
       <c r="F174" s="5">
         <v>0</v>
       </c>
       <c r="G174" s="5" t="s">
-        <v>739</v>
+        <v>702</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -7371,22 +7410,22 @@
         <v>273</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="D175" s="5">
         <v>3</v>
       </c>
       <c r="E175" s="5" t="s">
-        <v>763</v>
+        <v>726</v>
       </c>
       <c r="F175" s="5">
         <v>0</v>
       </c>
       <c r="G175" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -7394,22 +7433,22 @@
         <v>274</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="D176" s="5">
         <v>1</v>
       </c>
       <c r="E176" s="5" t="s">
-        <v>764</v>
+        <v>727</v>
       </c>
       <c r="F176" s="5">
         <v>1</v>
       </c>
       <c r="G176" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -7417,22 +7456,22 @@
         <v>275</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="D177" s="5">
         <v>2</v>
       </c>
       <c r="E177" s="5" t="s">
-        <v>765</v>
+        <v>728</v>
       </c>
       <c r="F177" s="5">
         <v>0</v>
       </c>
       <c r="G177" s="5" t="s">
-        <v>739</v>
+        <v>702</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -7440,22 +7479,22 @@
         <v>276</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>706</v>
+        <v>669</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>707</v>
+        <v>670</v>
       </c>
       <c r="D178" s="5">
         <v>3</v>
       </c>
       <c r="E178" s="5" t="s">
-        <v>795</v>
+        <v>758</v>
       </c>
       <c r="F178" s="5">
         <v>0</v>
       </c>
       <c r="G178" s="5" t="s">
-        <v>739</v>
+        <v>702</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -7463,22 +7502,22 @@
         <v>277</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="D179" s="5">
         <v>3</v>
       </c>
       <c r="E179" s="5" t="s">
-        <v>766</v>
+        <v>729</v>
       </c>
       <c r="F179" s="5">
         <v>1</v>
       </c>
       <c r="G179" s="5" t="s">
-        <v>739</v>
+        <v>702</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -7486,22 +7525,22 @@
         <v>278</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="D180" s="5">
         <v>0</v>
       </c>
       <c r="E180" s="5" t="s">
-        <v>768</v>
+        <v>731</v>
       </c>
       <c r="F180" s="5">
         <v>0</v>
       </c>
       <c r="G180" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -7509,22 +7548,22 @@
         <v>279</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="D181" s="5">
         <v>0</v>
       </c>
       <c r="E181" s="5" t="s">
-        <v>767</v>
+        <v>730</v>
       </c>
       <c r="F181" s="5">
         <v>0</v>
       </c>
       <c r="G181" s="5" t="s">
-        <v>740</v>
+        <v>703</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -7532,22 +7571,22 @@
         <v>280</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>708</v>
+        <v>671</v>
       </c>
       <c r="D182" s="5">
         <v>3</v>
       </c>
       <c r="E182" s="5" t="s">
-        <v>701</v>
+        <v>664</v>
       </c>
       <c r="F182" s="5">
         <v>1</v>
       </c>
       <c r="G182" s="5" t="s">
-        <v>739</v>
+        <v>702</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -7555,22 +7594,22 @@
         <v>281</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="D183" s="5">
         <v>2</v>
       </c>
       <c r="E183" s="5" t="s">
-        <v>769</v>
+        <v>732</v>
       </c>
       <c r="F183" s="5">
         <v>0</v>
       </c>
       <c r="G183" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="184" spans="1:7" ht="23">
@@ -7578,22 +7617,22 @@
         <v>282</v>
       </c>
       <c r="B184" s="9" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="D184" s="5">
         <v>4</v>
       </c>
       <c r="E184" s="5" t="s">
-        <v>682</v>
+        <v>645</v>
       </c>
       <c r="F184" s="5">
         <v>1</v>
       </c>
       <c r="G184" s="5" t="s">
-        <v>739</v>
+        <v>702</v>
       </c>
     </row>
     <row r="185" spans="1:7" ht="23">
@@ -7601,22 +7640,22 @@
         <v>283</v>
       </c>
       <c r="B185" s="9" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="D185" s="5">
         <v>4</v>
       </c>
       <c r="E185" s="5" t="s">
-        <v>683</v>
+        <v>646</v>
       </c>
       <c r="F185" s="5">
         <v>1</v>
       </c>
       <c r="G185" s="5" t="s">
-        <v>739</v>
+        <v>702</v>
       </c>
     </row>
     <row r="186" spans="1:7" ht="23">
@@ -7624,22 +7663,22 @@
         <v>284</v>
       </c>
       <c r="B186" s="9" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="D186" s="5">
         <v>4</v>
       </c>
       <c r="E186" s="5" t="s">
-        <v>684</v>
+        <v>647</v>
       </c>
       <c r="F186" s="5">
         <v>1</v>
       </c>
       <c r="G186" s="5" t="s">
-        <v>739</v>
+        <v>702</v>
       </c>
     </row>
     <row r="187" spans="1:7" ht="23">
@@ -7647,22 +7686,22 @@
         <v>285</v>
       </c>
       <c r="B187" s="9" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>680</v>
+        <v>643</v>
       </c>
       <c r="D187" s="5">
         <v>4</v>
       </c>
       <c r="E187" s="5" t="s">
-        <v>685</v>
+        <v>648</v>
       </c>
       <c r="F187" s="5">
         <v>1</v>
       </c>
       <c r="G187" s="5" t="s">
-        <v>739</v>
+        <v>702</v>
       </c>
     </row>
     <row r="188" spans="1:7" ht="23">
@@ -7670,22 +7709,22 @@
         <v>286</v>
       </c>
       <c r="B188" s="9" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="D188" s="5">
         <v>4</v>
       </c>
       <c r="E188" s="5" t="s">
-        <v>686</v>
+        <v>649</v>
       </c>
       <c r="F188" s="5">
         <v>1</v>
       </c>
       <c r="G188" s="5" t="s">
-        <v>739</v>
+        <v>702</v>
       </c>
     </row>
     <row r="189" spans="1:7" ht="23">
@@ -7693,22 +7732,22 @@
         <v>287</v>
       </c>
       <c r="B189" s="9" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="C189" s="5" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="D189" s="5">
         <v>4</v>
       </c>
       <c r="E189" s="5" t="s">
-        <v>687</v>
+        <v>650</v>
       </c>
       <c r="F189" s="5">
         <v>1</v>
       </c>
       <c r="G189" s="5" t="s">
-        <v>739</v>
+        <v>702</v>
       </c>
     </row>
     <row r="190" spans="1:7" ht="23">
@@ -7716,22 +7755,22 @@
         <v>288</v>
       </c>
       <c r="B190" s="9" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="D190" s="5">
         <v>4</v>
       </c>
       <c r="E190" s="5" t="s">
-        <v>688</v>
+        <v>651</v>
       </c>
       <c r="F190" s="5">
         <v>1</v>
       </c>
       <c r="G190" s="5" t="s">
-        <v>739</v>
+        <v>702</v>
       </c>
     </row>
     <row r="191" spans="1:7" ht="23">
@@ -7739,22 +7778,22 @@
         <v>289</v>
       </c>
       <c r="B191" s="9" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="D191" s="5">
         <v>4</v>
       </c>
       <c r="E191" s="5" t="s">
-        <v>689</v>
+        <v>652</v>
       </c>
       <c r="F191" s="5">
         <v>1</v>
       </c>
       <c r="G191" s="5" t="s">
-        <v>739</v>
+        <v>702</v>
       </c>
     </row>
     <row r="192" spans="1:7" ht="23">
@@ -7762,22 +7801,22 @@
         <v>290</v>
       </c>
       <c r="B192" s="9" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="D192" s="5">
         <v>4</v>
       </c>
       <c r="E192" s="5" t="s">
-        <v>690</v>
+        <v>653</v>
       </c>
       <c r="F192" s="5">
         <v>1</v>
       </c>
       <c r="G192" s="5" t="s">
-        <v>739</v>
+        <v>702</v>
       </c>
     </row>
     <row r="193" spans="1:7" ht="23">
@@ -7785,22 +7824,22 @@
         <v>291</v>
       </c>
       <c r="B193" s="9" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="D193" s="5">
         <v>4</v>
       </c>
       <c r="E193" s="5" t="s">
-        <v>691</v>
+        <v>654</v>
       </c>
       <c r="F193" s="5">
         <v>1</v>
       </c>
       <c r="G193" s="5" t="s">
-        <v>739</v>
+        <v>702</v>
       </c>
     </row>
     <row r="194" spans="1:7" ht="23">
@@ -7808,22 +7847,22 @@
         <v>292</v>
       </c>
       <c r="B194" s="9" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="D194" s="5">
         <v>4</v>
       </c>
       <c r="E194" s="5" t="s">
-        <v>692</v>
+        <v>655</v>
       </c>
       <c r="F194" s="5">
         <v>1</v>
       </c>
       <c r="G194" s="5" t="s">
-        <v>739</v>
+        <v>702</v>
       </c>
     </row>
     <row r="195" spans="1:7" ht="23">
@@ -7831,22 +7870,22 @@
         <v>293</v>
       </c>
       <c r="B195" s="9" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="D195" s="5">
         <v>4</v>
       </c>
       <c r="E195" s="5" t="s">
-        <v>693</v>
+        <v>656</v>
       </c>
       <c r="F195" s="5">
         <v>1</v>
       </c>
       <c r="G195" s="5" t="s">
-        <v>739</v>
+        <v>702</v>
       </c>
     </row>
     <row r="196" spans="1:7" ht="23">
@@ -7854,22 +7893,22 @@
         <v>294</v>
       </c>
       <c r="B196" s="9" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="D196" s="5">
         <v>4</v>
       </c>
       <c r="E196" s="5" t="s">
-        <v>694</v>
+        <v>657</v>
       </c>
       <c r="F196" s="5">
         <v>1</v>
       </c>
       <c r="G196" s="5" t="s">
-        <v>739</v>
+        <v>702</v>
       </c>
     </row>
     <row r="197" spans="1:7" ht="23">
@@ -7877,22 +7916,22 @@
         <v>295</v>
       </c>
       <c r="B197" s="9" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="D197" s="5">
         <v>4</v>
       </c>
       <c r="E197" s="5" t="s">
-        <v>695</v>
+        <v>658</v>
       </c>
       <c r="F197" s="5">
         <v>1</v>
       </c>
       <c r="G197" s="5" t="s">
-        <v>739</v>
+        <v>702</v>
       </c>
     </row>
     <row r="198" spans="1:7" ht="23">
@@ -7900,22 +7939,22 @@
         <v>296</v>
       </c>
       <c r="B198" s="9" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="D198" s="5">
         <v>4</v>
       </c>
       <c r="E198" s="5" t="s">
-        <v>696</v>
+        <v>659</v>
       </c>
       <c r="F198" s="5">
         <v>1</v>
       </c>
       <c r="G198" s="5" t="s">
-        <v>739</v>
+        <v>702</v>
       </c>
     </row>
     <row r="199" spans="1:7" ht="23">
@@ -7923,22 +7962,22 @@
         <v>297</v>
       </c>
       <c r="B199" s="9" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="D199" s="5">
         <v>4</v>
       </c>
       <c r="E199" s="5" t="s">
-        <v>698</v>
+        <v>661</v>
       </c>
       <c r="F199" s="5">
         <v>1</v>
       </c>
       <c r="G199" s="5" t="s">
-        <v>739</v>
+        <v>702</v>
       </c>
     </row>
     <row r="200" spans="1:7" ht="23">
@@ -7946,22 +7985,22 @@
         <v>298</v>
       </c>
       <c r="B200" s="9" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="C200" s="5" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="D200" s="5">
         <v>4</v>
       </c>
       <c r="E200" s="5" t="s">
-        <v>697</v>
+        <v>660</v>
       </c>
       <c r="F200" s="5">
         <v>1</v>
       </c>
       <c r="G200" s="5" t="s">
-        <v>739</v>
+        <v>702</v>
       </c>
     </row>
     <row r="201" spans="1:7">
@@ -7969,22 +8008,22 @@
         <v>299</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="D201" s="5">
         <v>2</v>
       </c>
       <c r="E201" s="5" t="s">
-        <v>771</v>
+        <v>734</v>
       </c>
       <c r="F201" s="5">
         <v>0</v>
       </c>
       <c r="G201" s="5" t="s">
-        <v>770</v>
+        <v>733</v>
       </c>
     </row>
     <row r="202" spans="1:7">
@@ -7992,22 +8031,22 @@
         <v>300</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="C202" s="5" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="D202" s="5">
         <v>0</v>
       </c>
       <c r="E202" s="5" t="s">
-        <v>775</v>
+        <v>738</v>
       </c>
       <c r="F202" s="5">
         <v>0</v>
       </c>
       <c r="G202" s="5" t="s">
-        <v>770</v>
+        <v>733</v>
       </c>
     </row>
     <row r="203" spans="1:7">
@@ -8015,22 +8054,22 @@
         <v>301</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="D203" s="5">
         <v>2</v>
       </c>
       <c r="E203" s="5" t="s">
-        <v>776</v>
+        <v>739</v>
       </c>
       <c r="F203" s="5">
         <v>0</v>
       </c>
       <c r="G203" s="5" t="s">
-        <v>739</v>
+        <v>702</v>
       </c>
     </row>
     <row r="204" spans="1:7">
@@ -8038,22 +8077,22 @@
         <v>302</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="C204" s="5" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="D204" s="5">
         <v>2</v>
       </c>
       <c r="E204" s="5" t="s">
-        <v>777</v>
+        <v>740</v>
       </c>
       <c r="F204" s="5">
         <v>0</v>
       </c>
       <c r="G204" s="5" t="s">
-        <v>770</v>
+        <v>733</v>
       </c>
     </row>
     <row r="205" spans="1:7">
@@ -8061,22 +8100,22 @@
         <v>303</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="D205" s="5">
         <v>3</v>
       </c>
       <c r="E205" s="5" t="s">
-        <v>778</v>
+        <v>741</v>
       </c>
       <c r="F205" s="5">
         <v>0</v>
       </c>
       <c r="G205" s="5" t="s">
-        <v>770</v>
+        <v>733</v>
       </c>
     </row>
     <row r="206" spans="1:7">
@@ -8084,22 +8123,22 @@
         <v>304</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="D206" s="5">
         <v>3</v>
       </c>
       <c r="E206" s="5" t="s">
-        <v>779</v>
+        <v>742</v>
       </c>
       <c r="F206" s="5">
         <v>0</v>
       </c>
       <c r="G206" s="5" t="s">
-        <v>770</v>
+        <v>733</v>
       </c>
     </row>
     <row r="207" spans="1:7">
@@ -8107,22 +8146,22 @@
         <v>305</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="C207" s="5" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="D207" s="5">
         <v>3</v>
       </c>
       <c r="E207" s="5" t="s">
-        <v>780</v>
+        <v>743</v>
       </c>
       <c r="F207" s="5">
         <v>0</v>
       </c>
       <c r="G207" s="5" t="s">
-        <v>770</v>
+        <v>733</v>
       </c>
     </row>
     <row r="208" spans="1:7">
@@ -8130,22 +8169,22 @@
         <v>306</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="D208" s="5">
         <v>3</v>
       </c>
       <c r="E208" s="5" t="s">
-        <v>781</v>
+        <v>744</v>
       </c>
       <c r="F208" s="5">
         <v>0</v>
       </c>
       <c r="G208" s="5" t="s">
-        <v>739</v>
+        <v>702</v>
       </c>
     </row>
     <row r="209" spans="1:7">
@@ -8153,22 +8192,22 @@
         <v>307</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="C209" s="5" t="s">
-        <v>709</v>
+        <v>672</v>
       </c>
       <c r="D209" s="5">
         <v>3</v>
       </c>
       <c r="E209" s="5" t="s">
-        <v>782</v>
+        <v>745</v>
       </c>
       <c r="F209" s="5">
         <v>0</v>
       </c>
       <c r="G209" s="5" t="s">
-        <v>739</v>
+        <v>702</v>
       </c>
     </row>
     <row r="210" spans="1:7">
@@ -8176,22 +8215,22 @@
         <v>308</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="C210" s="5" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="D210" s="5">
         <v>3</v>
       </c>
       <c r="E210" s="5" t="s">
-        <v>783</v>
+        <v>746</v>
       </c>
       <c r="F210" s="5">
         <v>0</v>
       </c>
       <c r="G210" s="5" t="s">
-        <v>770</v>
+        <v>733</v>
       </c>
     </row>
     <row r="211" spans="1:7">
@@ -8199,22 +8238,22 @@
         <v>309</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="C211" s="5" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="D211" s="5">
         <v>3</v>
       </c>
       <c r="E211" s="5" t="s">
-        <v>802</v>
+        <v>765</v>
       </c>
       <c r="F211" s="5">
         <v>0</v>
       </c>
       <c r="G211" s="5" t="s">
-        <v>738</v>
+        <v>701</v>
       </c>
     </row>
     <row r="212" spans="1:7">
@@ -8222,22 +8261,22 @@
         <v>310</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="C212" s="5" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="D212" s="5">
         <v>3</v>
       </c>
       <c r="E212" s="5" t="s">
-        <v>784</v>
+        <v>747</v>
       </c>
       <c r="F212" s="5">
         <v>0</v>
       </c>
       <c r="G212" s="5" t="s">
-        <v>770</v>
+        <v>733</v>
       </c>
     </row>
     <row r="213" spans="1:7">
@@ -8245,22 +8284,22 @@
         <v>311</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>637</v>
+        <v>601</v>
       </c>
       <c r="C213" s="5" t="s">
-        <v>638</v>
+        <v>602</v>
       </c>
       <c r="D213" s="5">
         <v>3</v>
       </c>
       <c r="E213" s="5" t="s">
-        <v>785</v>
+        <v>748</v>
       </c>
       <c r="F213" s="5">
         <v>0</v>
       </c>
       <c r="G213" s="5" t="s">
-        <v>770</v>
+        <v>733</v>
       </c>
     </row>
     <row r="214" spans="1:7">
@@ -8268,22 +8307,22 @@
         <v>312</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>639</v>
+        <v>603</v>
       </c>
       <c r="C214" s="5" t="s">
-        <v>640</v>
+        <v>604</v>
       </c>
       <c r="D214" s="5">
         <v>1</v>
       </c>
       <c r="E214" s="5" t="s">
-        <v>786</v>
+        <v>749</v>
       </c>
       <c r="F214" s="5">
         <v>1</v>
       </c>
       <c r="G214" s="5" t="s">
-        <v>739</v>
+        <v>702</v>
       </c>
     </row>
     <row r="215" spans="1:7">
@@ -8291,22 +8330,22 @@
         <v>313</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>713</v>
+        <v>676</v>
       </c>
       <c r="C215" s="5" t="s">
-        <v>714</v>
+        <v>677</v>
       </c>
       <c r="D215" s="5">
         <v>2</v>
       </c>
       <c r="E215" s="5" t="s">
-        <v>787</v>
+        <v>750</v>
       </c>
       <c r="F215" s="5">
         <v>1</v>
       </c>
       <c r="G215" s="5" t="s">
-        <v>739</v>
+        <v>702</v>
       </c>
     </row>
     <row r="216" spans="1:7">
@@ -8314,22 +8353,22 @@
         <v>314</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>641</v>
+        <v>605</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>642</v>
+        <v>606</v>
       </c>
       <c r="D216" s="5">
         <v>1</v>
       </c>
       <c r="E216" s="5" t="s">
-        <v>788</v>
+        <v>751</v>
       </c>
       <c r="F216" s="11">
         <v>0</v>
       </c>
       <c r="G216" s="5" t="s">
-        <v>770</v>
+        <v>733</v>
       </c>
     </row>
     <row r="217" spans="1:7">
@@ -8337,22 +8376,22 @@
         <v>315</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>681</v>
+        <v>644</v>
       </c>
       <c r="C217" s="5" t="s">
-        <v>710</v>
+        <v>673</v>
       </c>
       <c r="D217" s="5">
         <v>1</v>
       </c>
       <c r="E217" s="5" t="s">
-        <v>789</v>
+        <v>752</v>
       </c>
       <c r="F217" s="11">
         <v>0</v>
       </c>
       <c r="G217" s="5" t="s">
-        <v>770</v>
+        <v>733</v>
       </c>
     </row>
     <row r="218" spans="1:7">
@@ -8360,22 +8399,22 @@
         <v>316</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>711</v>
+        <v>674</v>
       </c>
       <c r="C218" s="5" t="s">
-        <v>712</v>
+        <v>675</v>
       </c>
       <c r="D218" s="5">
         <v>2</v>
       </c>
       <c r="E218" s="5" t="s">
-        <v>790</v>
+        <v>753</v>
       </c>
       <c r="F218" s="11">
         <v>0</v>
       </c>
       <c r="G218" s="5" t="s">
-        <v>770</v>
+        <v>733</v>
       </c>
     </row>
     <row r="219" spans="1:7" ht="23">
@@ -8383,22 +8422,22 @@
         <v>317</v>
       </c>
       <c r="B219" s="10" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="C219" s="10" t="s">
-        <v>602</v>
+        <v>780</v>
       </c>
       <c r="D219" s="5">
         <v>1</v>
       </c>
       <c r="E219" s="5" t="s">
-        <v>643</v>
+        <v>607</v>
       </c>
       <c r="F219" s="5">
         <v>0</v>
       </c>
       <c r="G219" s="5" t="s">
-        <v>770</v>
+        <v>733</v>
       </c>
     </row>
     <row r="220" spans="1:7" ht="23">
@@ -8406,22 +8445,22 @@
         <v>318</v>
       </c>
       <c r="B220" s="10" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="C220" s="10" t="s">
-        <v>679</v>
+        <v>781</v>
       </c>
       <c r="D220" s="5">
         <v>1</v>
       </c>
       <c r="E220" s="5" t="s">
-        <v>644</v>
+        <v>608</v>
       </c>
       <c r="F220" s="5">
         <v>0</v>
       </c>
       <c r="G220" s="5" t="s">
-        <v>770</v>
+        <v>733</v>
       </c>
     </row>
     <row r="221" spans="1:7" ht="23">
@@ -8429,22 +8468,22 @@
         <v>319</v>
       </c>
       <c r="B221" s="10" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="C221" s="10" t="s">
-        <v>603</v>
+        <v>813</v>
       </c>
       <c r="D221" s="5">
         <v>1</v>
       </c>
       <c r="E221" s="5" t="s">
-        <v>645</v>
+        <v>609</v>
       </c>
       <c r="F221" s="5">
         <v>0</v>
       </c>
       <c r="G221" s="5" t="s">
-        <v>770</v>
+        <v>733</v>
       </c>
     </row>
     <row r="222" spans="1:7" ht="23">
@@ -8452,22 +8491,22 @@
         <v>320</v>
       </c>
       <c r="B222" s="10" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="C222" s="10" t="s">
-        <v>604</v>
+        <v>782</v>
       </c>
       <c r="D222" s="5">
         <v>1</v>
       </c>
       <c r="E222" s="5" t="s">
-        <v>646</v>
+        <v>610</v>
       </c>
       <c r="F222" s="5">
         <v>0</v>
       </c>
       <c r="G222" s="5" t="s">
-        <v>770</v>
+        <v>733</v>
       </c>
     </row>
     <row r="223" spans="1:7" ht="23">
@@ -8475,22 +8514,22 @@
         <v>321</v>
       </c>
       <c r="B223" s="10" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="C223" s="10" t="s">
-        <v>605</v>
+        <v>783</v>
       </c>
       <c r="D223" s="5">
         <v>1</v>
       </c>
       <c r="E223" s="5" t="s">
-        <v>647</v>
+        <v>611</v>
       </c>
       <c r="F223" s="5">
         <v>0</v>
       </c>
       <c r="G223" s="5" t="s">
-        <v>770</v>
+        <v>733</v>
       </c>
     </row>
     <row r="224" spans="1:7" ht="23">
@@ -8498,22 +8537,22 @@
         <v>322</v>
       </c>
       <c r="B224" s="10" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="C224" s="10" t="s">
-        <v>606</v>
+        <v>784</v>
       </c>
       <c r="D224" s="5">
         <v>1</v>
       </c>
       <c r="E224" s="5" t="s">
-        <v>648</v>
+        <v>612</v>
       </c>
       <c r="F224" s="5">
         <v>0</v>
       </c>
       <c r="G224" s="5" t="s">
-        <v>770</v>
+        <v>733</v>
       </c>
     </row>
     <row r="225" spans="1:7" ht="23">
@@ -8521,22 +8560,22 @@
         <v>323</v>
       </c>
       <c r="B225" s="10" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="C225" s="10" t="s">
-        <v>607</v>
+        <v>814</v>
       </c>
       <c r="D225" s="5">
         <v>1</v>
       </c>
       <c r="E225" s="5" t="s">
-        <v>649</v>
+        <v>613</v>
       </c>
       <c r="F225" s="5">
         <v>0</v>
       </c>
       <c r="G225" s="5" t="s">
-        <v>770</v>
+        <v>733</v>
       </c>
     </row>
     <row r="226" spans="1:7" ht="23">
@@ -8544,22 +8583,22 @@
         <v>324</v>
       </c>
       <c r="B226" s="10" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="C226" s="10" t="s">
-        <v>608</v>
+        <v>785</v>
       </c>
       <c r="D226" s="5">
         <v>1</v>
       </c>
       <c r="E226" s="5" t="s">
-        <v>650</v>
+        <v>614</v>
       </c>
       <c r="F226" s="5">
         <v>0</v>
       </c>
       <c r="G226" s="5" t="s">
-        <v>770</v>
+        <v>733</v>
       </c>
     </row>
     <row r="227" spans="1:7" ht="23">
@@ -8567,22 +8606,22 @@
         <v>325</v>
       </c>
       <c r="B227" s="10" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="C227" s="10" t="s">
-        <v>609</v>
+        <v>786</v>
       </c>
       <c r="D227" s="5">
         <v>1</v>
       </c>
       <c r="E227" s="5" t="s">
-        <v>651</v>
+        <v>615</v>
       </c>
       <c r="F227" s="5">
         <v>0</v>
       </c>
       <c r="G227" s="5" t="s">
-        <v>770</v>
+        <v>733</v>
       </c>
     </row>
     <row r="228" spans="1:7" ht="23">
@@ -8590,22 +8629,22 @@
         <v>326</v>
       </c>
       <c r="B228" s="10" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="C228" s="10" t="s">
-        <v>610</v>
+        <v>787</v>
       </c>
       <c r="D228" s="5">
         <v>1</v>
       </c>
       <c r="E228" s="5" t="s">
-        <v>652</v>
+        <v>616</v>
       </c>
       <c r="F228" s="5">
         <v>0</v>
       </c>
       <c r="G228" s="5" t="s">
-        <v>770</v>
+        <v>733</v>
       </c>
     </row>
     <row r="229" spans="1:7" ht="23">
@@ -8613,22 +8652,22 @@
         <v>327</v>
       </c>
       <c r="B229" s="10" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="C229" s="10" t="s">
-        <v>611</v>
+        <v>815</v>
       </c>
       <c r="D229" s="5">
         <v>1</v>
       </c>
       <c r="E229" s="5" t="s">
-        <v>653</v>
+        <v>617</v>
       </c>
       <c r="F229" s="5">
         <v>0</v>
       </c>
       <c r="G229" s="5" t="s">
-        <v>770</v>
+        <v>733</v>
       </c>
     </row>
     <row r="230" spans="1:7" ht="23">
@@ -8636,22 +8675,22 @@
         <v>328</v>
       </c>
       <c r="B230" s="10" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="C230" s="10" t="s">
-        <v>612</v>
+        <v>790</v>
       </c>
       <c r="D230" s="5">
         <v>1</v>
       </c>
       <c r="E230" s="5" t="s">
-        <v>654</v>
+        <v>618</v>
       </c>
       <c r="F230" s="5">
         <v>0</v>
       </c>
       <c r="G230" s="5" t="s">
-        <v>770</v>
+        <v>733</v>
       </c>
     </row>
     <row r="231" spans="1:7" ht="23">
@@ -8659,22 +8698,22 @@
         <v>329</v>
       </c>
       <c r="B231" s="10" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="C231" s="10" t="s">
-        <v>613</v>
+        <v>791</v>
       </c>
       <c r="D231" s="5">
         <v>1</v>
       </c>
       <c r="E231" s="5" t="s">
-        <v>655</v>
+        <v>619</v>
       </c>
       <c r="F231" s="5">
         <v>0</v>
       </c>
       <c r="G231" s="5" t="s">
-        <v>770</v>
+        <v>733</v>
       </c>
     </row>
     <row r="232" spans="1:7" ht="23">
@@ -8682,22 +8721,22 @@
         <v>330</v>
       </c>
       <c r="B232" s="10" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="C232" s="10" t="s">
-        <v>614</v>
+        <v>792</v>
       </c>
       <c r="D232" s="5">
         <v>1</v>
       </c>
       <c r="E232" s="5" t="s">
-        <v>656</v>
+        <v>620</v>
       </c>
       <c r="F232" s="5">
         <v>0</v>
       </c>
       <c r="G232" s="5" t="s">
-        <v>770</v>
+        <v>733</v>
       </c>
     </row>
     <row r="233" spans="1:7" ht="23">
@@ -8705,22 +8744,22 @@
         <v>331</v>
       </c>
       <c r="B233" s="10" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="C233" s="10" t="s">
-        <v>615</v>
+        <v>816</v>
       </c>
       <c r="D233" s="5">
         <v>1</v>
       </c>
       <c r="E233" s="5" t="s">
-        <v>657</v>
+        <v>621</v>
       </c>
       <c r="F233" s="5">
         <v>0</v>
       </c>
       <c r="G233" s="5" t="s">
-        <v>770</v>
+        <v>733</v>
       </c>
     </row>
     <row r="234" spans="1:7" ht="23">
@@ -8728,22 +8767,22 @@
         <v>332</v>
       </c>
       <c r="B234" s="10" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="C234" s="10" t="s">
-        <v>616</v>
+        <v>793</v>
       </c>
       <c r="D234" s="5">
         <v>1</v>
       </c>
       <c r="E234" s="5" t="s">
-        <v>658</v>
+        <v>622</v>
       </c>
       <c r="F234" s="5">
         <v>0</v>
       </c>
       <c r="G234" s="5" t="s">
-        <v>770</v>
+        <v>733</v>
       </c>
     </row>
     <row r="235" spans="1:7" ht="23">
@@ -8751,22 +8790,22 @@
         <v>333</v>
       </c>
       <c r="B235" s="10" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="C235" s="10" t="s">
-        <v>622</v>
+        <v>794</v>
       </c>
       <c r="D235" s="5">
         <v>1</v>
       </c>
       <c r="E235" s="5" t="s">
-        <v>659</v>
+        <v>623</v>
       </c>
       <c r="F235" s="5">
         <v>0</v>
       </c>
       <c r="G235" s="5" t="s">
-        <v>770</v>
+        <v>733</v>
       </c>
     </row>
     <row r="236" spans="1:7" ht="23">
@@ -8774,22 +8813,22 @@
         <v>334</v>
       </c>
       <c r="B236" s="10" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="C236" s="10" t="s">
-        <v>621</v>
+        <v>795</v>
       </c>
       <c r="D236" s="5">
         <v>1</v>
       </c>
       <c r="E236" s="5" t="s">
-        <v>660</v>
+        <v>624</v>
       </c>
       <c r="F236" s="5">
         <v>0</v>
       </c>
       <c r="G236" s="5" t="s">
-        <v>770</v>
+        <v>733</v>
       </c>
     </row>
     <row r="237" spans="1:7" ht="23">
@@ -8797,22 +8836,22 @@
         <v>335</v>
       </c>
       <c r="B237" s="10" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="C237" s="10" t="s">
-        <v>623</v>
+        <v>796</v>
       </c>
       <c r="D237" s="5">
         <v>1</v>
       </c>
       <c r="E237" s="5" t="s">
-        <v>661</v>
+        <v>625</v>
       </c>
       <c r="F237" s="5">
         <v>0</v>
       </c>
       <c r="G237" s="5" t="s">
-        <v>770</v>
+        <v>733</v>
       </c>
     </row>
     <row r="238" spans="1:7" ht="23">
@@ -8820,22 +8859,22 @@
         <v>336</v>
       </c>
       <c r="B238" s="10" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="C238" s="10" t="s">
-        <v>624</v>
+        <v>817</v>
       </c>
       <c r="D238" s="5">
         <v>1</v>
       </c>
       <c r="E238" s="5" t="s">
-        <v>662</v>
+        <v>626</v>
       </c>
       <c r="F238" s="5">
         <v>0</v>
       </c>
       <c r="G238" s="5" t="s">
-        <v>770</v>
+        <v>733</v>
       </c>
     </row>
     <row r="239" spans="1:7" ht="23">
@@ -8843,22 +8882,22 @@
         <v>337</v>
       </c>
       <c r="B239" s="10" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="C239" s="10" t="s">
-        <v>632</v>
+        <v>797</v>
       </c>
       <c r="D239" s="5">
         <v>1</v>
       </c>
       <c r="E239" s="5" t="s">
-        <v>663</v>
+        <v>627</v>
       </c>
       <c r="F239" s="5">
         <v>0</v>
       </c>
       <c r="G239" s="5" t="s">
-        <v>770</v>
+        <v>733</v>
       </c>
     </row>
     <row r="240" spans="1:7" ht="23">
@@ -8866,22 +8905,22 @@
         <v>338</v>
       </c>
       <c r="B240" s="10" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="C240" s="10" t="s">
-        <v>629</v>
+        <v>798</v>
       </c>
       <c r="D240" s="5">
         <v>1</v>
       </c>
       <c r="E240" s="5" t="s">
-        <v>664</v>
+        <v>628</v>
       </c>
       <c r="F240" s="5">
         <v>0</v>
       </c>
       <c r="G240" s="5" t="s">
-        <v>770</v>
+        <v>733</v>
       </c>
     </row>
     <row r="241" spans="1:7" ht="23">
@@ -8889,22 +8928,22 @@
         <v>339</v>
       </c>
       <c r="B241" s="10" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="C241" s="10" t="s">
-        <v>630</v>
+        <v>799</v>
       </c>
       <c r="D241" s="5">
         <v>1</v>
       </c>
       <c r="E241" s="5" t="s">
-        <v>665</v>
+        <v>629</v>
       </c>
       <c r="F241" s="5">
         <v>0</v>
       </c>
       <c r="G241" s="5" t="s">
-        <v>770</v>
+        <v>733</v>
       </c>
     </row>
     <row r="242" spans="1:7" ht="23">
@@ -8912,22 +8951,22 @@
         <v>340</v>
       </c>
       <c r="B242" s="10" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="C242" s="10" t="s">
-        <v>631</v>
+        <v>800</v>
       </c>
       <c r="D242" s="5">
         <v>1</v>
       </c>
       <c r="E242" s="5" t="s">
-        <v>666</v>
+        <v>630</v>
       </c>
       <c r="F242" s="5">
         <v>0</v>
       </c>
       <c r="G242" s="5" t="s">
-        <v>770</v>
+        <v>733</v>
       </c>
     </row>
     <row r="243" spans="1:7" ht="23">
@@ -8935,22 +8974,22 @@
         <v>341</v>
       </c>
       <c r="B243" s="10" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="C243" s="10" t="s">
-        <v>617</v>
+        <v>801</v>
       </c>
       <c r="D243" s="5">
         <v>1</v>
       </c>
       <c r="E243" s="5" t="s">
-        <v>667</v>
+        <v>631</v>
       </c>
       <c r="F243" s="5">
         <v>0</v>
       </c>
       <c r="G243" s="5" t="s">
-        <v>770</v>
+        <v>733</v>
       </c>
     </row>
     <row r="244" spans="1:7" ht="23">
@@ -8958,22 +8997,22 @@
         <v>342</v>
       </c>
       <c r="B244" s="10" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="C244" s="10" t="s">
-        <v>618</v>
+        <v>802</v>
       </c>
       <c r="D244" s="5">
         <v>1</v>
       </c>
       <c r="E244" s="5" t="s">
-        <v>668</v>
+        <v>632</v>
       </c>
       <c r="F244" s="5">
         <v>0</v>
       </c>
       <c r="G244" s="5" t="s">
-        <v>770</v>
+        <v>733</v>
       </c>
     </row>
     <row r="245" spans="1:7" ht="23">
@@ -8981,22 +9020,22 @@
         <v>343</v>
       </c>
       <c r="B245" s="10" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="C245" s="10" t="s">
-        <v>619</v>
+        <v>803</v>
       </c>
       <c r="D245" s="5">
         <v>1</v>
       </c>
       <c r="E245" s="5" t="s">
-        <v>669</v>
+        <v>633</v>
       </c>
       <c r="F245" s="5">
         <v>0</v>
       </c>
       <c r="G245" s="5" t="s">
-        <v>770</v>
+        <v>733</v>
       </c>
     </row>
     <row r="246" spans="1:7" ht="23">
@@ -9004,22 +9043,22 @@
         <v>344</v>
       </c>
       <c r="B246" s="10" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="C246" s="10" t="s">
-        <v>620</v>
+        <v>804</v>
       </c>
       <c r="D246" s="5">
         <v>1</v>
       </c>
       <c r="E246" s="5" t="s">
-        <v>670</v>
+        <v>634</v>
       </c>
       <c r="F246" s="5">
         <v>0</v>
       </c>
       <c r="G246" s="5" t="s">
-        <v>770</v>
+        <v>733</v>
       </c>
     </row>
     <row r="247" spans="1:7" ht="23">
@@ -9027,22 +9066,22 @@
         <v>345</v>
       </c>
       <c r="B247" s="10" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="C247" s="10" t="s">
-        <v>625</v>
+        <v>805</v>
       </c>
       <c r="D247" s="5">
         <v>1</v>
       </c>
       <c r="E247" s="5" t="s">
-        <v>671</v>
+        <v>635</v>
       </c>
       <c r="F247" s="5">
         <v>0</v>
       </c>
       <c r="G247" s="5" t="s">
-        <v>770</v>
+        <v>733</v>
       </c>
     </row>
     <row r="248" spans="1:7" ht="23">
@@ -9050,22 +9089,22 @@
         <v>346</v>
       </c>
       <c r="B248" s="10" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="C248" s="10" t="s">
-        <v>626</v>
+        <v>806</v>
       </c>
       <c r="D248" s="5">
         <v>1</v>
       </c>
       <c r="E248" s="5" t="s">
-        <v>672</v>
+        <v>636</v>
       </c>
       <c r="F248" s="5">
         <v>0</v>
       </c>
       <c r="G248" s="5" t="s">
-        <v>770</v>
+        <v>733</v>
       </c>
     </row>
     <row r="249" spans="1:7" ht="23">
@@ -9073,22 +9112,22 @@
         <v>347</v>
       </c>
       <c r="B249" s="10" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="C249" s="10" t="s">
-        <v>627</v>
+        <v>807</v>
       </c>
       <c r="D249" s="5">
         <v>1</v>
       </c>
       <c r="E249" s="5" t="s">
-        <v>673</v>
+        <v>637</v>
       </c>
       <c r="F249" s="5">
         <v>0</v>
       </c>
       <c r="G249" s="5" t="s">
-        <v>770</v>
+        <v>733</v>
       </c>
     </row>
     <row r="250" spans="1:7" ht="23">
@@ -9096,22 +9135,22 @@
         <v>348</v>
       </c>
       <c r="B250" s="10" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="C250" s="10" t="s">
-        <v>628</v>
+        <v>808</v>
       </c>
       <c r="D250" s="5">
         <v>1</v>
       </c>
       <c r="E250" s="5" t="s">
-        <v>674</v>
+        <v>638</v>
       </c>
       <c r="F250" s="5">
         <v>0</v>
       </c>
       <c r="G250" s="5" t="s">
-        <v>770</v>
+        <v>733</v>
       </c>
     </row>
     <row r="251" spans="1:7" ht="23">
@@ -9119,22 +9158,22 @@
         <v>349</v>
       </c>
       <c r="B251" s="10" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="C251" s="10" t="s">
-        <v>803</v>
+        <v>809</v>
       </c>
       <c r="D251" s="5">
         <v>1</v>
       </c>
       <c r="E251" s="5" t="s">
-        <v>675</v>
+        <v>639</v>
       </c>
       <c r="F251" s="5">
         <v>0</v>
       </c>
       <c r="G251" s="5" t="s">
-        <v>770</v>
+        <v>733</v>
       </c>
     </row>
     <row r="252" spans="1:7" ht="23">
@@ -9142,22 +9181,22 @@
         <v>350</v>
       </c>
       <c r="B252" s="10" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="C252" s="10" t="s">
-        <v>805</v>
+        <v>810</v>
       </c>
       <c r="D252" s="5">
         <v>1</v>
       </c>
       <c r="E252" s="5" t="s">
-        <v>676</v>
+        <v>640</v>
       </c>
       <c r="F252" s="5">
         <v>0</v>
       </c>
       <c r="G252" s="5" t="s">
-        <v>770</v>
+        <v>733</v>
       </c>
     </row>
     <row r="253" spans="1:7" ht="23">
@@ -9165,22 +9204,22 @@
         <v>351</v>
       </c>
       <c r="B253" s="10" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="C253" s="10" t="s">
-        <v>806</v>
+        <v>811</v>
       </c>
       <c r="D253" s="5">
         <v>1</v>
       </c>
       <c r="E253" s="5" t="s">
-        <v>677</v>
+        <v>641</v>
       </c>
       <c r="F253" s="5">
         <v>0</v>
       </c>
       <c r="G253" s="5" t="s">
-        <v>770</v>
+        <v>733</v>
       </c>
     </row>
     <row r="254" spans="1:7" ht="23">
@@ -9188,22 +9227,22 @@
         <v>352</v>
       </c>
       <c r="B254" s="10" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="C254" s="10" t="s">
-        <v>804</v>
+        <v>812</v>
       </c>
       <c r="D254" s="5">
         <v>1</v>
       </c>
       <c r="E254" s="5" t="s">
-        <v>678</v>
+        <v>642</v>
       </c>
       <c r="F254" s="5">
         <v>0</v>
       </c>
       <c r="G254" s="5" t="s">
-        <v>770</v>
+        <v>733</v>
       </c>
     </row>
     <row r="255" spans="1:7">
@@ -9211,22 +9250,22 @@
         <v>353</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>633</v>
+        <v>597</v>
       </c>
       <c r="C255" s="5" t="s">
-        <v>634</v>
+        <v>598</v>
       </c>
       <c r="D255" s="5">
         <v>2</v>
       </c>
       <c r="E255" s="5" t="s">
-        <v>791</v>
+        <v>754</v>
       </c>
       <c r="F255" s="5">
         <v>0</v>
       </c>
       <c r="G255" s="5" t="s">
-        <v>739</v>
+        <v>702</v>
       </c>
     </row>
     <row r="256" spans="1:7">
@@ -9234,22 +9273,22 @@
         <v>354</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>635</v>
+        <v>599</v>
       </c>
       <c r="C256" s="5" t="s">
-        <v>636</v>
+        <v>600</v>
       </c>
       <c r="D256" s="5">
         <v>1</v>
       </c>
       <c r="E256" s="5" t="s">
-        <v>792</v>
+        <v>755</v>
       </c>
       <c r="F256" s="5">
         <v>0</v>
       </c>
       <c r="G256" s="5" t="s">
-        <v>739</v>
+        <v>702</v>
       </c>
     </row>
     <row r="257" spans="1:7">
@@ -9257,22 +9296,22 @@
         <v>355</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>699</v>
+        <v>662</v>
       </c>
       <c r="C257" s="5" t="s">
-        <v>700</v>
+        <v>663</v>
       </c>
       <c r="D257" s="5">
         <v>3</v>
       </c>
       <c r="E257" s="5" t="s">
-        <v>701</v>
+        <v>664</v>
       </c>
       <c r="F257" s="5">
         <v>1</v>
       </c>
       <c r="G257" s="5" t="s">
-        <v>770</v>
+        <v>733</v>
       </c>
     </row>
     <row r="258" spans="1:7">
@@ -9280,22 +9319,22 @@
         <v>356</v>
       </c>
       <c r="B258" s="5" t="s">
-        <v>702</v>
+        <v>665</v>
       </c>
       <c r="C258" s="5" t="s">
-        <v>703</v>
+        <v>666</v>
       </c>
       <c r="D258" s="5">
         <v>3</v>
       </c>
       <c r="E258" s="5" t="s">
-        <v>772</v>
+        <v>735</v>
       </c>
       <c r="F258" s="5">
         <v>0</v>
       </c>
       <c r="G258" s="5" t="s">
-        <v>770</v>
+        <v>733</v>
       </c>
     </row>
     <row r="259" spans="1:7">
@@ -9303,22 +9342,22 @@
         <v>357</v>
       </c>
       <c r="B259" s="5" t="s">
-        <v>704</v>
+        <v>667</v>
       </c>
       <c r="C259" s="5" t="s">
-        <v>705</v>
+        <v>668</v>
       </c>
       <c r="D259" s="5">
         <v>3</v>
       </c>
       <c r="E259" s="5" t="s">
-        <v>793</v>
+        <v>756</v>
       </c>
       <c r="F259" s="5">
         <v>0</v>
       </c>
       <c r="G259" s="5" t="s">
-        <v>770</v>
+        <v>733</v>
       </c>
     </row>
     <row r="260" spans="1:7">
@@ -9326,22 +9365,22 @@
         <v>358</v>
       </c>
       <c r="B260" s="5" t="s">
-        <v>717</v>
+        <v>680</v>
       </c>
       <c r="C260" s="5" t="s">
-        <v>719</v>
+        <v>682</v>
       </c>
       <c r="D260" s="5">
         <v>3</v>
       </c>
       <c r="E260" s="5" t="s">
-        <v>722</v>
+        <v>685</v>
       </c>
       <c r="F260" s="5">
         <v>1</v>
       </c>
       <c r="G260" s="5" t="s">
-        <v>770</v>
+        <v>733</v>
       </c>
     </row>
     <row r="261" spans="1:7">
@@ -9349,22 +9388,22 @@
         <v>359</v>
       </c>
       <c r="B261" s="5" t="s">
-        <v>718</v>
+        <v>681</v>
       </c>
       <c r="C261" s="5" t="s">
-        <v>720</v>
+        <v>683</v>
       </c>
       <c r="D261" s="5">
         <v>3</v>
       </c>
       <c r="E261" s="5" t="s">
-        <v>721</v>
+        <v>684</v>
       </c>
       <c r="F261" s="5">
         <v>1</v>
       </c>
       <c r="G261" s="5" t="s">
-        <v>770</v>
+        <v>733</v>
       </c>
     </row>
     <row r="262" spans="1:7">
@@ -9372,22 +9411,22 @@
         <v>360</v>
       </c>
       <c r="B262" s="5" t="s">
-        <v>735</v>
+        <v>766</v>
       </c>
       <c r="C262" s="5" t="s">
-        <v>736</v>
+        <v>767</v>
       </c>
       <c r="D262" s="5">
         <v>1</v>
       </c>
       <c r="E262" s="5" t="s">
-        <v>737</v>
+        <v>768</v>
       </c>
       <c r="F262" s="5">
         <v>0</v>
       </c>
       <c r="G262" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="263" spans="1:7">
@@ -9395,22 +9434,22 @@
         <v>361</v>
       </c>
       <c r="B263" s="5" t="s">
-        <v>741</v>
+        <v>704</v>
       </c>
       <c r="C263" s="5" t="s">
-        <v>742</v>
+        <v>705</v>
       </c>
       <c r="D263" s="5">
         <v>3</v>
       </c>
       <c r="E263" s="5" t="s">
-        <v>794</v>
+        <v>757</v>
       </c>
       <c r="F263" s="5">
         <v>1</v>
       </c>
       <c r="G263" s="5" t="s">
-        <v>739</v>
+        <v>702</v>
       </c>
     </row>
     <row r="264" spans="1:7">
@@ -9418,22 +9457,22 @@
         <v>362</v>
       </c>
       <c r="B264" s="5" t="s">
-        <v>744</v>
+        <v>707</v>
       </c>
       <c r="C264" s="5" t="s">
-        <v>746</v>
+        <v>709</v>
       </c>
       <c r="D264" s="5">
         <v>2</v>
       </c>
       <c r="E264" s="5" t="s">
-        <v>745</v>
+        <v>708</v>
       </c>
       <c r="F264" s="5">
         <v>1</v>
       </c>
       <c r="G264" s="5" t="s">
-        <v>740</v>
+        <v>703</v>
       </c>
     </row>
     <row r="265" spans="1:7">
@@ -9441,22 +9480,22 @@
         <v>363</v>
       </c>
       <c r="B265" s="5" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="C265" s="5" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="D265" s="5">
         <v>3</v>
       </c>
       <c r="E265" s="5" t="s">
-        <v>773</v>
+        <v>736</v>
       </c>
       <c r="F265" s="5">
         <v>1</v>
       </c>
       <c r="G265" s="5" t="s">
-        <v>739</v>
+        <v>702</v>
       </c>
     </row>
     <row r="266" spans="1:7">
@@ -9464,22 +9503,91 @@
         <v>364</v>
       </c>
       <c r="B266" s="5" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="C266" s="5" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="D266" s="5">
         <v>4</v>
       </c>
       <c r="E266" s="5" t="s">
+        <v>737</v>
+      </c>
+      <c r="F266" s="5">
+        <v>1</v>
+      </c>
+      <c r="G266" s="5" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7">
+      <c r="A267" s="5">
+        <v>365</v>
+      </c>
+      <c r="B267" s="5" t="s">
+        <v>769</v>
+      </c>
+      <c r="C267" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="D267" s="5">
+        <v>1</v>
+      </c>
+      <c r="E267" s="5" t="s">
+        <v>771</v>
+      </c>
+      <c r="F267" s="5">
+        <v>0</v>
+      </c>
+      <c r="G267" s="5" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7">
+      <c r="A268" s="5">
+        <v>366</v>
+      </c>
+      <c r="B268" s="5" t="s">
+        <v>770</v>
+      </c>
+      <c r="C268" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="D268" s="5">
+        <v>1</v>
+      </c>
+      <c r="E268" s="5" t="s">
+        <v>772</v>
+      </c>
+      <c r="F268" s="5">
+        <v>0</v>
+      </c>
+      <c r="G268" s="5" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7">
+      <c r="A269" s="5">
+        <v>367</v>
+      </c>
+      <c r="B269" s="5" t="s">
+        <v>773</v>
+      </c>
+      <c r="C269" s="5" t="s">
         <v>774</v>
       </c>
-      <c r="F266" s="5">
-        <v>1</v>
-      </c>
-      <c r="G266" s="5" t="s">
-        <v>739</v>
+      <c r="D269" s="5">
+        <v>3</v>
+      </c>
+      <c r="E269" s="5" t="s">
+        <v>775</v>
+      </c>
+      <c r="F269" s="5">
+        <v>0</v>
+      </c>
+      <c r="G269" s="5" t="s">
+        <v>702</v>
       </c>
     </row>
     <row r="280" spans="5:5">

--- a/data/zh-cn/achievement.xlsx
+++ b/data/zh-cn/achievement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayuankevinguo/Desktop/life-final/data/zh-cn/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7975894-9280-8942-9DEC-2DA8C806519D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD0E23C-61E8-9641-9F47-1DEC81D2D757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3384,7 +3384,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E167" sqref="E167"/>
+      <selection pane="bottomLeft" activeCell="E173" sqref="E173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25.5" defaultRowHeight="21"/>

--- a/data/zh-cn/achievement.xlsx
+++ b/data/zh-cn/achievement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayuankevinguo/Desktop/life-final/data/zh-cn/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AC82603-9115-5042-AC45-CCC91AA7B152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C149D5F6-CB89-6F4E-8D7E-DC855944FAB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -185,7 +185,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="822">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="825">
   <si>
     <t>$id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2970,6 +2970,15 @@
   </si>
   <si>
     <t>EVT?[100100]</t>
+  </si>
+  <si>
+    <t>胜利了（悲）</t>
+  </si>
+  <si>
+    <t>重开114514次</t>
+  </si>
+  <si>
+    <t>TMS&gt;114513</t>
   </si>
 </sst>
 </file>
@@ -3393,7 +3402,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A258" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E273" sqref="E273"/>
+      <selection pane="bottomLeft" activeCell="G273" sqref="G273"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25.5" defaultRowHeight="21"/>
@@ -9622,6 +9631,29 @@
         <v>699</v>
       </c>
     </row>
+    <row r="271" spans="1:7">
+      <c r="A271" s="5">
+        <v>369</v>
+      </c>
+      <c r="B271" s="5" t="s">
+        <v>822</v>
+      </c>
+      <c r="C271" s="5" t="s">
+        <v>823</v>
+      </c>
+      <c r="D271" s="5">
+        <v>2</v>
+      </c>
+      <c r="E271" s="5" t="s">
+        <v>824</v>
+      </c>
+      <c r="F271" s="5">
+        <v>0</v>
+      </c>
+      <c r="G271" s="5" t="s">
+        <v>699</v>
+      </c>
+    </row>
     <row r="280" spans="5:5">
       <c r="E280" s="5"/>
     </row>

--- a/data/zh-cn/achievement.xlsx
+++ b/data/zh-cn/achievement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayuankevinguo/Desktop/life-final/data/zh-cn/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C149D5F6-CB89-6F4E-8D7E-DC855944FAB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{637E9A5D-C806-314A-BD11-12DCE86F81B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3402,7 +3402,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A258" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G273" sqref="G273"/>
+      <selection pane="bottomLeft" activeCell="E274" sqref="E274"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25.5" defaultRowHeight="21"/>
